--- a/spec/ASW/Veh/Driver/VehMot/CoVM/CoVM_TrqDesCoord/CoVM_TrqDesCoord.xlsx
+++ b/spec/ASW/Veh/Driver/VehMot/CoVM/CoVM_TrqDesCoord/CoVM_TrqDesCoord.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\Unitfolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Veh\Driver\VehMot\CoVM\CoVM_TrqDesCoord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E728A-8F39-4BDA-97A9-68E28248061F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57708DC1-B5E5-4296-BB96-CB15EEA421A8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -71,6 +71,42 @@
   <si>
     <t>InitialValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoVeh_trqDesCompVeh</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>Nm</t>
+  </si>
+  <si>
+    <t>Signal for compensation correction of wheel torque level (signal 1)</t>
+  </si>
+  <si>
+    <t>AccPed_rTrq</t>
+  </si>
+  <si>
+    <t>Total drive train ratio of engine - wheel</t>
+  </si>
+  <si>
+    <t>VMD_trqDes</t>
+  </si>
+  <si>
+    <t>propulsion  torque after driving assistance coordination</t>
+  </si>
+  <si>
+    <t>CoVM_trqDes</t>
+  </si>
+  <si>
+    <t>Propulsion torque order after ESP-torque intervention coordination (wheel torque)</t>
+  </si>
+  <si>
+    <t>Torq</t>
+  </si>
+  <si>
+    <t>Ratio_100</t>
   </si>
 </sst>
 </file>
@@ -458,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -501,6 +537,81 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-100</v>
+      </c>
+      <c r="C3" s="5">
+        <v>100</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -510,10 +621,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -552,6 +663,32 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
